--- a/biology/Botanique/Tulbaghia/Tulbaghia.xlsx
+++ b/biology/Botanique/Tulbaghia/Tulbaghia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-Tulbhagia est un genre de plantes herbacés, pérennes et bulbeuses avec environ 30 espèces originaires de l'Afrique, appartenant à la famille des Amaryllidaceae[1]. L'aire de répartition indigène de ce genre va du Cameroun et du sud-ouest de la Tanzanie jusqu’en  Afrique du Sud [2].
+Tulbhagia est un genre de plantes herbacés, pérennes et bulbeuses avec environ 30 espèces originaires de l'Afrique, appartenant à la famille des Amaryllidaceae. L'aire de répartition indigène de ce genre va du Cameroun et du sud-ouest de la Tanzanie jusqu’en  Afrique du Sud .
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Carl von Linné et publié sur Mantissa Plantarum 148, 223 en 1771 [3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Carl von Linné et publié sur Mantissa Plantarum 148, 223 en 1771 .
 L'espèce type est: Tulbaghia capensis L.
 Etymologie
-Tulbaghia: Nom générique qui a été nommé en l'honneur de Ryk Tulbagh (1699-1771) , un gouverneur du Cap de Bonne-Espérance[4], de 1751 à sa mort en 1771.
+Tulbaghia: Nom générique qui a été nommé en l'honneur de Ryk Tulbagh (1699-1771) , un gouverneur du Cap de Bonne-Espérance, de 1751 à sa mort en 1771.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les espèces de Tulbaghia sont: 
 Tulbaghia acutiloba Harv.
